--- a/CVX_Kenya/Interventions/Roasting.xlsx
+++ b/CVX_Kenya/Interventions/Roasting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FFFC7D-D9DB-4ABF-B77F-18908143DDE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484EFCC9-F5FD-4FCC-ADF0-C4424BD2D89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
   <si>
     <t>level_row</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>Countering final demand of roasted coffee</t>
+  </si>
+  <si>
+    <t>Roasted coffee (commodity)</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1183,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,11 +1207,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1">
-        <f>main!C4</f>
-        <v>401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/CVX_Kenya/Interventions/Roasting.xlsx
+++ b/CVX_Kenya/Interventions/Roasting.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484EFCC9-F5FD-4FCC-ADF0-C4424BD2D89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0824351C-5390-4602-A84F-08EF933005D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
     <sheet name="Y" sheetId="1" r:id="rId2"/>
     <sheet name="Z" sheetId="4" r:id="rId3"/>
     <sheet name="VA" sheetId="5" r:id="rId4"/>
-    <sheet name="Indeces" sheetId="8" r:id="rId5"/>
-    <sheet name="main" sheetId="9" r:id="rId6"/>
+    <sheet name="UL" sheetId="10" r:id="rId5"/>
+    <sheet name="Indeces" sheetId="8" r:id="rId6"/>
+    <sheet name="main" sheetId="9" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
   <si>
     <t>level_row</t>
   </si>
@@ -599,6 +603,24 @@
   </si>
   <si>
     <t>Roasted coffee (commodity)</t>
+  </si>
+  <si>
+    <t>Sensistivity</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Useful life</t>
   </si>
 </sst>
 </file>
@@ -821,6 +843,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="S"/>
+      <sheetName val="Y"/>
+      <sheetName val="Z"/>
+      <sheetName val="VA"/>
+      <sheetName val="UL"/>
+      <sheetName val="Indeces"/>
+      <sheetName val="main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="16">
+          <cell r="C16">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,16 +1179,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1149,23 +1202,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1180,29 +1233,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1212,21 +1278,24 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1248,26 +1317,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1358,20 @@
       <c r="H1" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1299,7 +1380,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1308,17 +1389,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1360,23 +1441,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1395,8 +1476,20 @@
       <c r="G1" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
@@ -1404,16 +1497,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1448,6 +1541,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7F64E2-A012-4D7E-B2CD-43B0B480AD4F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2">
+        <f>[1]main!C16</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
@@ -1455,14 +1577,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1596,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1496,7 +1618,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1629,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1518,7 +1640,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1529,7 +1651,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1540,7 +1662,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1551,7 +1673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1562,7 +1684,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1584,7 +1706,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +1717,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1728,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1617,7 +1739,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1750,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1639,7 +1761,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1650,7 +1772,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1661,7 +1783,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1794,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1683,7 +1805,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1694,7 +1816,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1705,7 +1827,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1716,7 +1838,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1727,7 +1849,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1738,7 +1860,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1749,7 +1871,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1760,7 +1882,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1771,7 +1893,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1782,7 +1904,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1793,7 +1915,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1804,7 +1926,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1815,7 +1937,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1948,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1837,7 +1959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1848,7 +1970,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1859,7 +1981,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1870,7 +1992,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1878,7 +2000,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1886,7 +2008,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1894,7 +2016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1902,7 +2024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1910,7 +2032,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1918,7 +2040,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1926,7 +2048,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1934,7 +2056,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1942,7 +2064,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1950,7 +2072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1958,7 +2080,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1966,7 +2088,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1974,7 +2096,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1982,7 +2104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1990,7 +2112,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -1998,7 +2120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2006,7 +2128,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2014,87 +2136,87 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -2104,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2112,18 +2234,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -2146,7 +2268,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>171</v>
       </c>
@@ -2165,7 +2287,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="16" t="s">
         <v>185</v>
@@ -2180,7 +2302,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>177</v>
       </c>
@@ -2200,7 +2322,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="18" t="s">
         <v>185</v>

--- a/CVX_Kenya/Interventions/Roasting.xlsx
+++ b/CVX_Kenya/Interventions/Roasting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0824351C-5390-4602-A84F-08EF933005D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C967C12E-97CB-48F7-A987-1605B52EE108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="192">
   <si>
     <t>level_row</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>Countering final demand of roasted coffee</t>
-  </si>
-  <si>
-    <t>Roasted coffee (commodity)</t>
   </si>
   <si>
     <t>Sensistivity</t>
@@ -1179,16 +1176,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1202,23 +1199,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1235,20 +1232,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1256,46 +1253,47 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <f>main!C4</f>
+        <v>401</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1319,24 +1317,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1359,19 +1357,19 @@
         <v>180</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1380,7 +1378,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1389,17 +1387,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1447,17 +1445,17 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1477,19 +1475,19 @@
         <v>181</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
@@ -1497,16 +1495,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1548,16 +1546,16 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2">
         <f>[1]main!C16</f>
@@ -1577,14 +1575,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1594,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1618,7 +1616,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1673,7 +1671,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1706,7 +1704,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1750,7 +1748,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1761,7 +1759,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +1847,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1860,7 +1858,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1937,7 +1935,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1970,7 +1968,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2008,7 +2006,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2016,7 +2014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2024,7 +2022,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2032,7 +2030,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2040,7 +2038,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2056,7 +2054,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2064,7 +2062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2072,7 +2070,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2096,7 +2094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2104,7 +2102,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2112,7 +2110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2120,7 +2118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2128,7 +2126,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2136,87 +2134,87 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -2234,18 +2232,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>171</v>
       </c>
@@ -2287,7 +2285,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="16" t="s">
         <v>185</v>
@@ -2302,7 +2300,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>177</v>
       </c>
@@ -2322,7 +2320,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="18" t="s">
         <v>185</v>
